--- a/SoleraWeb/src/java/CargaDatos.xlsx
+++ b/SoleraWeb/src/java/CargaDatos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEAS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEAS\Desktop\SoleraWeb\SoleraWeb\src\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EC7157-C10D-4E55-9618-DA88E1E36976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C77059-AF87-4B42-81CA-32FAC5136B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
   <si>
     <t>MARCA</t>
   </si>
@@ -73,31 +73,115 @@
     <t>COBERTURA (DM o RT)</t>
   </si>
   <si>
-    <t>dm</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>mario</t>
-  </si>
-  <si>
-    <t>fisico</t>
-  </si>
-  <si>
-    <t>may@gil.com</t>
-  </si>
-  <si>
-    <t>suzuki</t>
-  </si>
-  <si>
-    <t>swift</t>
-  </si>
-  <si>
-    <t>cdmx</t>
-  </si>
-  <si>
-    <t>Tlalpan</t>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>EXPEDITION</t>
+  </si>
+  <si>
+    <t>1FMJU1KT2KEA25828</t>
+  </si>
+  <si>
+    <t>TLALPAN</t>
+  </si>
+  <si>
+    <t>42201833-001</t>
+  </si>
+  <si>
+    <t>CARGO</t>
+  </si>
+  <si>
+    <t>3H1KA4175HD414100</t>
+  </si>
+  <si>
+    <t>0421-64534</t>
+  </si>
+  <si>
+    <t>NUEVO</t>
+  </si>
+  <si>
+    <t>SPLINTER</t>
+  </si>
+  <si>
+    <t>WD3YF1A99HP350504</t>
+  </si>
+  <si>
+    <t>042247431-001</t>
+  </si>
+  <si>
+    <t>PROMASTER</t>
+  </si>
+  <si>
+    <t>9BD265553M9181099</t>
+  </si>
+  <si>
+    <t>042230231-001</t>
+  </si>
+  <si>
+    <t>PERSONA FISICA</t>
+  </si>
+  <si>
+    <t>FRONTIER</t>
+  </si>
+  <si>
+    <t>3N6AD33A8JK871704</t>
+  </si>
+  <si>
+    <t>GUADALAJARA</t>
+  </si>
+  <si>
+    <t>HILUX</t>
+  </si>
+  <si>
+    <t>MR0EX3DDXL0006975</t>
+  </si>
+  <si>
+    <t>RAM 2500</t>
+  </si>
+  <si>
+    <t>3C6SRADG0JG123894</t>
+  </si>
+  <si>
+    <t>042261857-001</t>
+  </si>
+  <si>
+    <t>GLC300</t>
+  </si>
+  <si>
+    <t>WDC0J4KBXKF510109</t>
+  </si>
+  <si>
+    <t>ALD AUTOMOTIVE SA DE CV JOSE ALBERTO VAZQUEZ RAMIREZ</t>
+  </si>
+  <si>
+    <t>SUSPENSION Y DIRECCION SA DE CV MOISES VAZQUEZ VELASQUEZ</t>
+  </si>
+  <si>
+    <t>MANZAHNOS VIAJES SA DE CV FERNANDO BERNAL OSCAR MANZANO</t>
+  </si>
+  <si>
+    <t>LEASEPLAN MEXICO SA DE CV AGUSTIN BLANCO CERVANTES</t>
+  </si>
+  <si>
+    <t>HELM DE MEXICO SA GUSTAVO IGNACIO LEMUS MENDIOLA</t>
+  </si>
+  <si>
+    <t>EDGAR RICARDO MONTERO ESPARZA MUNICIPIO DE TEQUILA JAL</t>
+  </si>
+  <si>
+    <t>MUNICIPIO DE TECOLOTLAN JALISCO RIGOBERTO ANDRADE RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>RICARDO PEñA ANA IRENE GUADALUPE BARAJAS MARTINEZ</t>
+  </si>
+  <si>
+    <t>Hola</t>
+  </si>
+  <si>
+    <t>hola@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -105,9 +189,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +252,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF073763"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -175,84 +327,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF073763"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,6 +506,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,40 +712,39 @@
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="30"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="17" fillId="32" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="32" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="32" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="32" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="40"/>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -695,18 +776,18 @@
     <cellStyle name="Énfasis5" xfId="27" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="28" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="29" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="30" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="31" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="32" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="40" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="30" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="31" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="33" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="34" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="35" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="36" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="37" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="38" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="39" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="32" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="33" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="34" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="35" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="36" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="37" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="38" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="39" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1042,29 +1123,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -1086,7 +1167,7 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1128,7 +1209,7 @@
       <c r="O1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="3" t="s">
@@ -1136,63 +1217,435 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1234</v>
-      </c>
-      <c r="B2" s="8">
-        <v>43385</v>
+      <c r="A2" s="8">
+        <v>42137312</v>
+      </c>
+      <c r="B2" s="5">
+        <v>44856</v>
       </c>
       <c r="C2">
         <v>1234</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>3334878017</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2">
+        <v>2019</v>
+      </c>
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="H2">
-        <v>4456789783</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="5">
+        <v>44856</v>
+      </c>
+      <c r="Q2" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2">
-        <v>2020</v>
-      </c>
-      <c r="N2">
-        <v>2.42433457353412E+17</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="6">
-        <v>43445</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
+      <c r="A3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5">
+        <v>44856</v>
+      </c>
+      <c r="C3">
+        <v>1234</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>3314794173</v>
+      </c>
+      <c r="I3">
+        <v>6142163986</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3">
+        <v>2018</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="5">
+        <v>44856</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5">
+        <v>44856</v>
+      </c>
+      <c r="C4">
+        <v>1234</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>5585741569</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4">
+        <v>2017</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="5">
+        <v>44856</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44856</v>
+      </c>
+      <c r="C5">
+        <v>1234</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>3319922224</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>2021</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="5">
+        <v>44856</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44856</v>
+      </c>
+      <c r="C6">
+        <v>1234</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>3231087978</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6">
+        <v>2018</v>
+      </c>
+      <c r="N6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="5">
+        <v>44856</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>42261869</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44856</v>
+      </c>
+      <c r="C7">
+        <v>1234</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>3321461964</v>
+      </c>
+      <c r="I7">
+        <v>3312776996</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7">
+        <v>2020</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="5">
+        <v>44856</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>42150159</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44856</v>
+      </c>
+      <c r="C8">
+        <v>1234</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>3751188484</v>
+      </c>
+      <c r="I8">
+        <v>3757603525</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8">
+        <v>2018</v>
+      </c>
+      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="5">
+        <v>44856</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5">
+        <v>44856</v>
+      </c>
+      <c r="C9">
+        <v>1234</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>3781166065</v>
+      </c>
+      <c r="I9">
+        <v>3787905801</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9">
+        <v>2019</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="5">
+        <v>44856</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{3EE33739-239B-455D-93F9-5284C7E47BA0}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{AB2A141D-1C78-413E-9AEF-A85B802FFC67}"/>
+    <hyperlink ref="J3:J9" r:id="rId2" display="hola@gmail.com" xr:uid="{912AF9EA-B930-4F86-9978-BDC8AD135565}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/SoleraWeb/src/java/CargaDatos.xlsx
+++ b/SoleraWeb/src/java/CargaDatos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEAS\Desktop\SoleraWeb\SoleraWeb\src\java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\death\Desktop\Solera Web 2\SoleraWeb2\SoleraWeb\src\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C77059-AF87-4B42-81CA-32FAC5136B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5ADCB8-A4F3-4DBE-AE6E-D56C10FC47C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
   <si>
     <t>MARCA</t>
   </si>
@@ -79,9 +79,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>EXPEDITION</t>
-  </si>
-  <si>
     <t>1FMJU1KT2KEA25828</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>42201833-001</t>
   </si>
   <si>
-    <t>CARGO</t>
-  </si>
-  <si>
     <t>3H1KA4175HD414100</t>
   </si>
   <si>
@@ -103,18 +97,12 @@
     <t>NUEVO</t>
   </si>
   <si>
-    <t>SPLINTER</t>
-  </si>
-  <si>
     <t>WD3YF1A99HP350504</t>
   </si>
   <si>
     <t>042247431-001</t>
   </si>
   <si>
-    <t>PROMASTER</t>
-  </si>
-  <si>
     <t>9BD265553M9181099</t>
   </si>
   <si>
@@ -124,33 +112,21 @@
     <t>PERSONA FISICA</t>
   </si>
   <si>
-    <t>FRONTIER</t>
-  </si>
-  <si>
     <t>3N6AD33A8JK871704</t>
   </si>
   <si>
     <t>GUADALAJARA</t>
   </si>
   <si>
-    <t>HILUX</t>
-  </si>
-  <si>
     <t>MR0EX3DDXL0006975</t>
   </si>
   <si>
-    <t>RAM 2500</t>
-  </si>
-  <si>
     <t>3C6SRADG0JG123894</t>
   </si>
   <si>
     <t>042261857-001</t>
   </si>
   <si>
-    <t>GLC300</t>
-  </si>
-  <si>
     <t>WDC0J4KBXKF510109</t>
   </si>
   <si>
@@ -182,6 +158,9 @@
   </si>
   <si>
     <t>hola@gmail.com</t>
+  </si>
+  <si>
+    <t>jungla</t>
   </si>
 </sst>
 </file>
@@ -1125,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,13 +1206,13 @@
         <v>1234</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -1245,19 +1224,19 @@
         <v>17</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M2">
         <v>2019</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
         <v>17</v>
@@ -1266,12 +1245,12 @@
         <v>44856</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5">
         <v>44856</v>
@@ -1280,13 +1259,13 @@
         <v>1234</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -1298,19 +1277,19 @@
         <v>6142163986</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M3">
         <v>2018</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1319,12 +1298,12 @@
         <v>44856</v>
       </c>
       <c r="Q3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5">
         <v>44856</v>
@@ -1333,13 +1312,13 @@
         <v>1234</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -1351,19 +1330,19 @@
         <v>17</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M4">
         <v>2017</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O4" t="s">
         <v>17</v>
@@ -1372,12 +1351,12 @@
         <v>44856</v>
       </c>
       <c r="Q4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5">
         <v>44856</v>
@@ -1386,13 +1365,13 @@
         <v>1234</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -1404,19 +1383,19 @@
         <v>17</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M5">
         <v>2021</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O5" t="s">
         <v>17</v>
@@ -1425,12 +1404,12 @@
         <v>44856</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5">
         <v>44856</v>
@@ -1439,16 +1418,16 @@
         <v>1234</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>3231087978</v>
@@ -1457,28 +1436,28 @@
         <v>17</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M6">
         <v>2018</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P6" s="5">
         <v>44856</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1492,16 +1471,16 @@
         <v>1234</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>3321461964</v>
@@ -1510,28 +1489,28 @@
         <v>3312776996</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M7">
         <v>2020</v>
       </c>
       <c r="N7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P7" s="5">
         <v>44856</v>
       </c>
       <c r="Q7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1545,16 +1524,16 @@
         <v>1234</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>3751188484</v>
@@ -1563,33 +1542,33 @@
         <v>3757603525</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M8">
         <v>2018</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P8" s="5">
         <v>44856</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5">
         <v>44856</v>
@@ -1598,16 +1577,16 @@
         <v>1234</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>3781166065</v>
@@ -1616,28 +1595,28 @@
         <v>3787905801</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M9">
         <v>2019</v>
       </c>
       <c r="N9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P9" s="5">
         <v>44856</v>
       </c>
       <c r="Q9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/SoleraWeb/src/java/CargaDatos.xlsx
+++ b/SoleraWeb/src/java/CargaDatos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\death\Desktop\Solera Web 2\SoleraWeb2\SoleraWeb\src\java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEAS\Desktop\SoleraWeb\SoleraWeb\src\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5ADCB8-A4F3-4DBE-AE6E-D56C10FC47C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383CE742-7709-4FD1-A739-6515D200AA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
   <si>
     <t>MARCA</t>
   </si>
@@ -73,94 +73,160 @@
     <t>COBERTURA (DM o RT)</t>
   </si>
   <si>
-    <t>SD</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>1FMJU1KT2KEA25828</t>
-  </si>
-  <si>
-    <t>TLALPAN</t>
-  </si>
-  <si>
-    <t>42201833-001</t>
-  </si>
-  <si>
-    <t>3H1KA4175HD414100</t>
-  </si>
-  <si>
-    <t>0421-64534</t>
-  </si>
-  <si>
-    <t>NUEVO</t>
-  </si>
-  <si>
-    <t>WD3YF1A99HP350504</t>
-  </si>
-  <si>
-    <t>042247431-001</t>
-  </si>
-  <si>
-    <t>9BD265553M9181099</t>
-  </si>
-  <si>
-    <t>042230231-001</t>
-  </si>
-  <si>
     <t>PERSONA FISICA</t>
   </si>
   <si>
-    <t>3N6AD33A8JK871704</t>
-  </si>
-  <si>
     <t>GUADALAJARA</t>
   </si>
   <si>
-    <t>MR0EX3DDXL0006975</t>
-  </si>
-  <si>
-    <t>3C6SRADG0JG123894</t>
-  </si>
-  <si>
-    <t>042261857-001</t>
-  </si>
-  <si>
-    <t>WDC0J4KBXKF510109</t>
-  </si>
-  <si>
-    <t>ALD AUTOMOTIVE SA DE CV JOSE ALBERTO VAZQUEZ RAMIREZ</t>
-  </si>
-  <si>
-    <t>SUSPENSION Y DIRECCION SA DE CV MOISES VAZQUEZ VELASQUEZ</t>
-  </si>
-  <si>
-    <t>MANZAHNOS VIAJES SA DE CV FERNANDO BERNAL OSCAR MANZANO</t>
-  </si>
-  <si>
-    <t>LEASEPLAN MEXICO SA DE CV AGUSTIN BLANCO CERVANTES</t>
-  </si>
-  <si>
-    <t>HELM DE MEXICO SA GUSTAVO IGNACIO LEMUS MENDIOLA</t>
-  </si>
-  <si>
-    <t>EDGAR RICARDO MONTERO ESPARZA MUNICIPIO DE TEQUILA JAL</t>
-  </si>
-  <si>
-    <t>MUNICIPIO DE TECOLOTLAN JALISCO RIGOBERTO ANDRADE RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>RICARDO PEñA ANA IRENE GUADALUPE BARAJAS MARTINEZ</t>
-  </si>
-  <si>
-    <t>Hola</t>
-  </si>
-  <si>
-    <t>hola@gmail.com</t>
-  </si>
-  <si>
-    <t>jungla</t>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>SOCIEDAD ECOLOGICA PARA EL MANEJO DE RESIDUOS SA//EDGAR FELIPE NUñO</t>
+  </si>
+  <si>
+    <t>CARNES SELECTAS ICEA SA DE CV//GUILLERMO ARANDAS PINTO</t>
+  </si>
+  <si>
+    <t>PERSONA FISICA CON ACTIVIDAD EMPRESARIAL</t>
+  </si>
+  <si>
+    <t>GESTORIA@NRFM.COM.MX</t>
+  </si>
+  <si>
+    <t>CARNICERIAELORIGEN@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>INFINITI</t>
+  </si>
+  <si>
+    <t>YAMAHA</t>
+  </si>
+  <si>
+    <t>QX60</t>
+  </si>
+  <si>
+    <t>YBR 125</t>
+  </si>
+  <si>
+    <t>5N1AL0MM8JC535355</t>
+  </si>
+  <si>
+    <t>LBPKE1313L0141223</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t>COLISION</t>
+  </si>
+  <si>
+    <t>422A2432</t>
+  </si>
+  <si>
+    <t>JOSE DE JESUS JINEZ GARCES</t>
+  </si>
+  <si>
+    <t>LEASEPLAN MEXICO SA DE CV</t>
+  </si>
+  <si>
+    <t>SOPORTE PARA EMPRESAS, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>RICARDO DE JESUS MU&amp;OZ GARCIA</t>
+  </si>
+  <si>
+    <t>VLADIMIS CASARRUBIAS GOMEZ</t>
+  </si>
+  <si>
+    <t>MARTIN FUENTES CHAVEZ</t>
+  </si>
+  <si>
+    <t>MARTIN RIOS DIAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8000053273</t>
+  </si>
+  <si>
+    <t>SINDATO@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>JURIDICO.PACIFICO@MULTISISTEMAS.COM.MX</t>
+  </si>
+  <si>
+    <t>SINDATO@GMAIL</t>
+  </si>
+  <si>
+    <t>BAIC</t>
+  </si>
+  <si>
+    <t>CHEVROLET</t>
+  </si>
+  <si>
+    <t>NISSAN</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>SUBARU</t>
+  </si>
+  <si>
+    <t>MINI</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>BEAT</t>
+  </si>
+  <si>
+    <t>URVAN</t>
+  </si>
+  <si>
+    <t>SPARK</t>
+  </si>
+  <si>
+    <t>SAVEIRO</t>
+  </si>
+  <si>
+    <t>FORESTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINI COOPER </t>
+  </si>
+  <si>
+    <t>LNBSCBAF9JR019211</t>
+  </si>
+  <si>
+    <t>MA6CA6CD1MT014733</t>
+  </si>
+  <si>
+    <t>JN1BE6DS2K9034595</t>
+  </si>
+  <si>
+    <t>KL1CM6CD4CC565932</t>
+  </si>
+  <si>
+    <t>9BWKB05U5BP172751</t>
+  </si>
+  <si>
+    <t>JF2SKDMC0MH477955</t>
+  </si>
+  <si>
+    <t>WMWSU3105BT074610</t>
+  </si>
+  <si>
+    <t>MONTERREY</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -170,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,15 +365,19 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,12 +555,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +724,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -701,9 +765,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -722,10 +785,9 @@
     <xf numFmtId="14" fontId="16" fillId="32" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="40"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="40">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -755,7 +817,6 @@
     <cellStyle name="Énfasis5" xfId="27" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="28" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="29" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="40" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="30" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="31" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1102,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,11 +1176,11 @@
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="77.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
@@ -1197,434 +1258,472 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>42137312</v>
+        <v>42235736</v>
       </c>
       <c r="B2" s="5">
-        <v>44856</v>
-      </c>
-      <c r="C2">
-        <v>1234</v>
+        <v>2022</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>3332006412</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>3334878017</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
       <c r="P2" s="5">
-        <v>44856</v>
+        <v>44816</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>21</v>
+      <c r="A3" s="8">
+        <v>42214102</v>
       </c>
       <c r="B3" s="5">
-        <v>44856</v>
-      </c>
-      <c r="C3">
-        <v>1234</v>
+        <v>2022</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>3314794173</v>
+        <v>3318847487</v>
       </c>
       <c r="I3">
-        <v>6142163986</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P3" s="5">
-        <v>44856</v>
+        <v>44817</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>23</v>
+      <c r="A4">
+        <v>42263916</v>
       </c>
       <c r="B4" s="5">
-        <v>44856</v>
-      </c>
-      <c r="C4">
-        <v>1234</v>
+        <v>2023</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
       <c r="H4">
-        <v>5585741569</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>45</v>
+        <v>8121949810</v>
+      </c>
+      <c r="I4">
+        <v>8125823403</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="P4" s="5">
-        <v>44856</v>
+        <v>44818</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>26</v>
+      <c r="A5" t="s">
+        <v>35</v>
       </c>
       <c r="B5" s="5">
-        <v>44856</v>
-      </c>
-      <c r="C5">
-        <v>1234</v>
+        <v>2024</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
       <c r="H5">
-        <v>3319922224</v>
+        <v>3323102480</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M5">
         <v>2021</v>
       </c>
       <c r="N5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P5" s="5">
-        <v>44856</v>
+        <v>44819</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>28</v>
+      <c r="A6">
+        <v>42231148</v>
       </c>
       <c r="B6" s="5">
-        <v>44856</v>
-      </c>
-      <c r="C6">
-        <v>1234</v>
+        <v>2025</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
       <c r="H6">
-        <v>3231087978</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="9" t="s">
+        <v>5554389669</v>
+      </c>
+      <c r="I6">
+        <v>5554510121</v>
+      </c>
+      <c r="J6" t="s">
         <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="P6" s="5">
-        <v>44856</v>
+        <v>44820</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>42261869</v>
+      <c r="A7">
+        <v>42280252</v>
       </c>
       <c r="B7" s="5">
-        <v>44856</v>
-      </c>
-      <c r="C7">
-        <v>1234</v>
+        <v>2026</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
       <c r="H7">
-        <v>3321461964</v>
-      </c>
-      <c r="I7">
-        <v>3312776996</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>45</v>
+        <v>3316687072</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="N7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" t="s">
         <v>32</v>
       </c>
-      <c r="O7" t="s">
-        <v>31</v>
-      </c>
       <c r="P7" s="5">
-        <v>44856</v>
+        <v>44821</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>42150159</v>
+      <c r="A8">
+        <v>42270478</v>
       </c>
       <c r="B8" s="5">
-        <v>44856</v>
-      </c>
-      <c r="C8">
-        <v>1234</v>
+        <v>2027</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
       <c r="H8">
-        <v>3751188484</v>
-      </c>
-      <c r="I8">
-        <v>3757603525</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>45</v>
+        <v>3331579474</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M8">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="N8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="5">
+        <v>44822</v>
+      </c>
+      <c r="Q8" t="s">
         <v>33</v>
-      </c>
-      <c r="O8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="5">
-        <v>44856</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9">
+        <v>42276023</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2028</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>6869450456</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9">
+        <v>2021</v>
+      </c>
+      <c r="N9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="5">
+        <v>44823</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>42270478</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2029</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="5">
-        <v>44856</v>
-      </c>
-      <c r="C9">
-        <v>1234</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9">
-        <v>3781166065</v>
-      </c>
-      <c r="I9">
-        <v>3787905801</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="H10">
+        <v>3313334810</v>
+      </c>
+      <c r="J10" t="s">
         <v>46</v>
       </c>
-      <c r="M9">
-        <v>2019</v>
-      </c>
-      <c r="N9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="5">
-        <v>44856</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>20</v>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10">
+        <v>2011</v>
+      </c>
+      <c r="N10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="5">
+        <v>44824</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{AB2A141D-1C78-413E-9AEF-A85B802FFC67}"/>
-    <hyperlink ref="J3:J9" r:id="rId2" display="hola@gmail.com" xr:uid="{912AF9EA-B930-4F86-9978-BDC8AD135565}"/>
-  </hyperlinks>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>